--- a/HRBackend/output/Ahmadelshafe.xlsx
+++ b/HRBackend/output/Ahmadelshafe.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +445,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C2" t="str">
-        <v>23-Jul-23</v>
+        <v>21-Aug-23</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -480,7 +480,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C3" t="str">
-        <v>24-Jul-23</v>
+        <v>22-Aug-23</v>
       </c>
       <c r="D3" t="str">
         <v/>
@@ -515,7 +515,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C4" t="str">
-        <v>25-Jul-23</v>
+        <v>23-Aug-23</v>
       </c>
       <c r="D4" t="str">
         <v/>
@@ -550,7 +550,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C5" t="str">
-        <v>26-Jul-23</v>
+        <v>24-Aug-23</v>
       </c>
       <c r="D5" t="str">
         <v/>
@@ -585,7 +585,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Jul-23</v>
+        <v>27-Aug-23</v>
       </c>
       <c r="D6" t="str">
         <v/>
@@ -620,7 +620,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C7" t="str">
-        <v>30-Jul-23</v>
+        <v>28-Aug-23</v>
       </c>
       <c r="D7" t="str">
         <v/>
@@ -655,7 +655,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C8" t="str">
-        <v>31-Jul-23</v>
+        <v>29-Aug-23</v>
       </c>
       <c r="D8" t="str">
         <v/>
@@ -690,7 +690,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C9" t="str">
-        <v>01-Aug-23</v>
+        <v>30-Aug-23</v>
       </c>
       <c r="D9" t="str">
         <v/>
@@ -725,7 +725,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C10" t="str">
-        <v>02-Aug-23</v>
+        <v>31-Aug-23</v>
       </c>
       <c r="D10" t="str">
         <v/>
@@ -760,22 +760,22 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Aug-23</v>
+        <v>03-Sep-23</v>
       </c>
       <c r="D11" t="str">
-        <v>09:18</v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v>16:59</v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v>00:08</v>
+        <v/>
       </c>
       <c r="G11" t="str">
         <v/>
       </c>
       <c r="H11" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -795,7 +795,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C12" t="str">
-        <v>06-Aug-23</v>
+        <v>04-Sep-23</v>
       </c>
       <c r="D12" t="str">
         <v/>
@@ -830,7 +830,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C13" t="str">
-        <v>07-Aug-23</v>
+        <v>05-Sep-23</v>
       </c>
       <c r="D13" t="str">
         <v/>
@@ -865,7 +865,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C14" t="str">
-        <v>08-Aug-23</v>
+        <v>06-Sep-23</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -900,7 +900,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C15" t="str">
-        <v>09-Aug-23</v>
+        <v>07-Sep-23</v>
       </c>
       <c r="D15" t="str">
         <v/>
@@ -935,7 +935,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Aug-23</v>
+        <v>10-Sep-23</v>
       </c>
       <c r="D16" t="str">
         <v/>
@@ -970,7 +970,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C17" t="str">
-        <v>13-Aug-23</v>
+        <v>11-Sep-23</v>
       </c>
       <c r="D17" t="str">
         <v/>
@@ -1005,7 +1005,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C18" t="str">
-        <v>14-Aug-23</v>
+        <v>12-Sep-23</v>
       </c>
       <c r="D18" t="str">
         <v/>
@@ -1040,7 +1040,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C19" t="str">
-        <v>15-Aug-23</v>
+        <v>13-Sep-23</v>
       </c>
       <c r="D19" t="str">
         <v/>
@@ -1075,7 +1075,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C20" t="str">
-        <v>16-Aug-23</v>
+        <v>14-Sep-23</v>
       </c>
       <c r="D20" t="str">
         <v/>
@@ -1110,7 +1110,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Aug-23</v>
+        <v>17-Sep-23</v>
       </c>
       <c r="D21" t="str">
         <v/>
@@ -1145,7 +1145,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C22" t="str">
-        <v>20-Aug-23</v>
+        <v>18-Sep-23</v>
       </c>
       <c r="D22" t="str">
         <v/>
@@ -1169,12 +1169,82 @@
         <v/>
       </c>
       <c r="K22" t="str">
+        <v>promech</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>54</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Ahmadelshafe</v>
+      </c>
+      <c r="C23" t="str">
+        <v>19-Sep-23</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v>True</v>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>promech</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>54</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Ahmadelshafe</v>
+      </c>
+      <c r="C24" t="str">
+        <v>20-Sep-23</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v>True</v>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
         <v>promech</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/HRBackend/output/Ahmadelshafe.xlsx
+++ b/HRBackend/output/Ahmadelshafe.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +445,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C2" t="str">
-        <v>21-Aug-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -480,7 +480,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C3" t="str">
-        <v>22-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D3" t="str">
         <v/>
@@ -515,7 +515,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C4" t="str">
-        <v>23-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D4" t="str">
         <v/>
@@ -550,7 +550,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C5" t="str">
-        <v>24-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D5" t="str">
         <v/>
@@ -585,7 +585,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D6" t="str">
         <v/>
@@ -620,7 +620,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C7" t="str">
-        <v>28-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D7" t="str">
         <v/>
@@ -655,7 +655,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C8" t="str">
-        <v>29-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D8" t="str">
         <v/>
@@ -690,7 +690,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C9" t="str">
-        <v>30-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D9" t="str">
         <v/>
@@ -725,7 +725,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C10" t="str">
-        <v>31-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D10" t="str">
         <v/>
@@ -760,22 +760,22 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>09:18</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>16:59</v>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>00:08</v>
       </c>
       <c r="G11" t="str">
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -795,7 +795,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C12" t="str">
-        <v>04-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D12" t="str">
         <v/>
@@ -830,7 +830,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C13" t="str">
-        <v>05-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D13" t="str">
         <v/>
@@ -865,7 +865,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C14" t="str">
-        <v>06-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -900,7 +900,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C15" t="str">
-        <v>07-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D15" t="str">
         <v/>
@@ -935,7 +935,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D16" t="str">
         <v/>
@@ -970,7 +970,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C17" t="str">
-        <v>11-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D17" t="str">
         <v/>
@@ -1005,7 +1005,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C18" t="str">
-        <v>12-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D18" t="str">
         <v/>
@@ -1040,7 +1040,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C19" t="str">
-        <v>13-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D19" t="str">
         <v/>
@@ -1075,7 +1075,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C20" t="str">
-        <v>14-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D20" t="str">
         <v/>
@@ -1110,7 +1110,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D21" t="str">
         <v/>
@@ -1145,7 +1145,7 @@
         <v>Ahmadelshafe</v>
       </c>
       <c r="C22" t="str">
-        <v>18-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D22" t="str">
         <v/>
@@ -1169,82 +1169,12 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>54</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Ahmadelshafe</v>
-      </c>
-      <c r="C23" t="str">
-        <v>19-Sep-23</v>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <v>True</v>
-      </c>
-      <c r="I23" t="str">
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <v>promech</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>54</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Ahmadelshafe</v>
-      </c>
-      <c r="C24" t="str">
-        <v>20-Sep-23</v>
-      </c>
-      <c r="D24" t="str">
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <v/>
-      </c>
-      <c r="H24" t="str">
-        <v>True</v>
-      </c>
-      <c r="I24" t="str">
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <v/>
-      </c>
-      <c r="K24" t="str">
         <v>promech</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
   </ignoredErrors>
 </worksheet>
 </file>